--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Exercise Files/Exercise 03.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Exercise Files/Exercise 03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Exercise Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Exercise Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F60D07F7-5C6A-4DDC-90E9-54AA56627E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B82F51D9-7046-4B81-9664-47D501FF848E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B944CD63-3BBC-4999-A5D4-406DEDF29F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DA4B3CA2-FC38-4A81-B669-21F5DB0169BC}"/>
+    <workbookView xWindow="5868" yWindow="24" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{DA4B3CA2-FC38-4A81-B669-21F5DB0169BC}"/>
   </bookViews>
   <sheets>
     <sheet name="2-WAY XLOOKUP" sheetId="1" r:id="rId1"/>
@@ -29,15 +29,36 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
   <si>
     <t>Jan</t>
   </si>
@@ -94,12 +115,6 @@
   </si>
   <si>
     <t>Team 7</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Team</t>
   </si>
   <si>
     <t>The CHOOSE Function</t>
@@ -202,9 +217,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -302,7 +318,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -310,12 +326,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -921,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A885576-7BBD-4608-9173-12E2AFFE5B87}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -934,9 +950,9 @@
     <col min="12" max="12" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>22</v>
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -962,7 +978,7 @@
         <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -991,10 +1007,13 @@
         <v>1340</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="10" cm="1">
+        <f t="array" ref="L4">_xlfn.XLOOKUP(K4,A4:A15,_xlfn.XLOOKUP(L3,B3:H3,B4:H15))</f>
+        <v>3996</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1282,8 +1301,73 @@
         <v>4644</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="str" cm="1">
+        <f t="array" ref="A18:A24">TRANSPOSE(B3:H3)</f>
+        <v>Team 1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <v>Team 2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <v>Team 3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <v>Team 4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
+        <v>Team 5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
+        <v xml:space="preserve">Team 6 </v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
+        <v>Team 7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4" xr:uid="{5033E21D-C0AB-4B99-954D-A603E589980E}">
+      <formula1>$A$4:$A$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3" xr:uid="{DF6CF629-E48A-4D9D-A5C4-2526E10E9349}">
+      <formula1>$B$18:$B$24</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1295,7 +1379,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="B22" sqref="B20:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1307,109 +1391,214 @@
     <col min="12" max="12" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="B4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,COUNTA($F$5:$F$8)),$F$5,$F$6,$F$7,$F$8)</f>
+        <v>Red</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B6" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,COUNTA($F$5:$F$8)),$F$5,$F$6,$F$7,$F$8)</f>
+        <v>Red</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" ref="B6:C19" ca="1" si="0">CHOOSE(RANDBETWEEN(1,COUNTA($F$5:$F$8)),$F$5,$F$6,$F$7,$F$8)</f>
+        <v>Green</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,COUNTA($F$5:$F$8)),$F$5,$F$6,$F$7,$F$8)</f>
+        <v>Red</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" ref="B9:B22" ca="1" si="1">CHOOSE(RANDBETWEEN(1,COUNTA($F$5:$F$8)),$F$5,$F$6,$F$7,$F$8)</f>
+        <v>Green</v>
+      </c>
+      <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="9" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>White</v>
+      </c>
+      <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Green</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Green</v>
+      </c>
+      <c r="C13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Blue</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Blue</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Green</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>White</v>
+      </c>
+      <c r="C17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="B18" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>White</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>38</v>
+      <c r="B19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>White</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1423,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE93FF13-2F09-452E-ADA0-7C75E97AC066}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1435,15 +1624,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>51</v>
+      <c r="A4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1451,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1459,7 +1648,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1467,7 +1656,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1475,138 +1664,198 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>51</v>
+      <c r="A11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>24</v>
+      <c r="A12" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
+      <c r="C12" t="str" cm="1">
+        <f t="array" ref="C12">_xlfn.SWITCH(B12,1,"Excellent",2,"Very Good",3,"OK",4,"Poor")</f>
+        <v>Very Good</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>25</v>
+      <c r="A13" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
+      <c r="C13" t="str" cm="1">
+        <f t="array" ref="C13">_xlfn.SWITCH(B13,1,"Excellent",2,"Very Good",3,"OK",4,"Poor")</f>
+        <v>Very Good</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>26</v>
+      <c r="A14" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
+      <c r="C14" t="str" cm="1">
+        <f t="array" ref="C14">_xlfn.SWITCH(B14,1,"Excellent",2,"Very Good",3,"OK",4,"Poor")</f>
+        <v>OK</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>27</v>
+      <c r="A15" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
+      <c r="C15" t="str" cm="1">
+        <f t="array" ref="C15">_xlfn.SWITCH(B15,1,"Excellent",2,"Very Good",3,"OK",4,"Poor")</f>
+        <v>Poor</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>28</v>
+      <c r="A16" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>29</v>
+      <c r="C16" t="str" cm="1">
+        <f t="array" ref="C16">_xlfn.SWITCH(B16,1,"Excellent",2,"Very Good",3,"OK",4,"Poor")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>30</v>
+      <c r="C17" t="str" cm="1">
+        <f t="array" ref="C17">_xlfn.SWITCH(B17,1,"Excellent",2,"Very Good",3,"OK",4,"Poor")</f>
+        <v>Poor</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>31</v>
+      <c r="C18" t="str" cm="1">
+        <f t="array" ref="C18">_xlfn.SWITCH(B18,1,"Excellent",2,"Very Good",3,"OK",4,"Poor")</f>
+        <v>Excellent</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>32</v>
+      <c r="C19" t="str" cm="1">
+        <f t="array" ref="C19">_xlfn.SWITCH(B19,1,"Excellent",2,"Very Good",3,"OK",4,"Poor")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>33</v>
+      <c r="C20" t="str" cm="1">
+        <f t="array" ref="C20">_xlfn.SWITCH(B20,1,"Excellent",2,"Very Good",3,"OK",4,"Poor")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>34</v>
+      <c r="C21" t="str" cm="1">
+        <f t="array" ref="C21">_xlfn.SWITCH(B21,1,"Excellent",2,"Very Good",3,"OK",4,"Poor")</f>
+        <v>Poor</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>35</v>
+      <c r="C22" t="str" cm="1">
+        <f t="array" ref="C22">_xlfn.SWITCH(B22,1,"Excellent",2,"Very Good",3,"OK",4,"Poor")</f>
+        <v>Poor</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>36</v>
+      <c r="C23" t="str" cm="1">
+        <f t="array" ref="C23">_xlfn.SWITCH(B23,1,"Excellent",2,"Very Good",3,"OK",4,"Poor")</f>
+        <v>Very Good</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>37</v>
+      <c r="C24" t="str" cm="1">
+        <f t="array" ref="C24">_xlfn.SWITCH(B24,1,"Excellent",2,"Very Good",3,"OK",4,"Poor")</f>
+        <v>Poor</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>38</v>
+      <c r="C25" t="str" cm="1">
+        <f t="array" ref="C25">_xlfn.SWITCH(B25,1,"Excellent",2,"Very Good",3,"OK",4,"Poor")</f>
+        <v>Poor</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B26">
         <v>4</v>
+      </c>
+      <c r="C26" t="str" cm="1">
+        <f t="array" ref="C26">_xlfn.SWITCH(B26,1,"Excellent",2,"Very Good",3,"OK",4,"Poor")</f>
+        <v>Poor</v>
       </c>
     </row>
   </sheetData>
